--- a/Output/soybean_year_result.xlsx
+++ b/Output/soybean_year_result.xlsx
@@ -48,7 +48,7 @@
     <t>(.0053369)</t>
   </si>
   <si>
-    <t>1950 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1950 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">-157.6101   </t>
@@ -69,7 +69,7 @@
     <t>(386.6806)</t>
   </si>
   <si>
-    <t>1951 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1951 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">-39.95125   </t>
@@ -84,7 +84,7 @@
     <t>(268.5025)</t>
   </si>
   <si>
-    <t>1954 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1954 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">3.751847   </t>
@@ -105,7 +105,7 @@
     <t>(627.3822)</t>
   </si>
   <si>
-    <t>1955 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1955 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">551.2963   </t>
@@ -126,7 +126,7 @@
     <t>(682.1971)</t>
   </si>
   <si>
-    <t>1956 x Percentage Decrease in Tenant Area in 1953</t>
+    <t>1956 x Percentage Decrease in Tenant Area during 1953</t>
   </si>
   <si>
     <t xml:space="preserve">594.6398   </t>
